--- a/data/signups.xlsx
+++ b/data/signups.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>timestamp</t>
   </si>
@@ -101,6 +101,39 @@
   </si>
   <si>
     <t>ads</t>
+  </si>
+  <si>
+    <t>2025-07-08T14:41:16.912Z</t>
+  </si>
+  <si>
+    <t>jghnu67</t>
+  </si>
+  <si>
+    <t>hgju7</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>jghmuih</t>
+  </si>
+  <si>
+    <t>jmhkui6trfdd</t>
+  </si>
+  <si>
+    <t>hgngu@example.com</t>
+  </si>
+  <si>
+    <t>12306978493</t>
+  </si>
+  <si>
+    <t>stricker</t>
+  </si>
+  <si>
+    <t>7u7u7ijmhn</t>
+  </si>
+  <si>
+    <t>sumn</t>
   </si>
 </sst>
 </file>
@@ -487,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -640,6 +673,53 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/signups.xlsx
+++ b/data/signups.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>timestamp</t>
   </si>
@@ -134,6 +134,33 @@
   </si>
   <si>
     <t>sumn</t>
+  </si>
+  <si>
+    <t>2025-07-10T15:09:19.710Z</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>sdad</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sdasdas</t>
+  </si>
+  <si>
+    <t>+923234242242</t>
+  </si>
+  <si>
+    <t>Defender (Center Back / Full Back) (Secondary: sddfdfD)</t>
+  </si>
+  <si>
+    <t>sdads</t>
+  </si>
+  <si>
+    <t>Test Test Test Test Test</t>
   </si>
 </sst>
 </file>
@@ -520,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -720,6 +747,53 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/signups.xlsx
+++ b/data/signups.xlsx
@@ -11,17 +11,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
   <si>
     <t>timestamp</t>
   </si>
   <si>
+    <t>planType</t>
+  </si>
+  <si>
+    <t>paymentStatus</t>
+  </si>
+  <si>
     <t>firstName</t>
   </si>
   <si>
     <t>lastName</t>
   </si>
   <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>playedBefore</t>
   </si>
   <si>
@@ -58,36 +70,42 @@
     <t>whyJoin</t>
   </si>
   <si>
-    <t>2025-07-08T10:02:43.664Z</t>
-  </si>
-  <si>
-    <t>zx</t>
+    <t>whyJoinReason</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>2025-07-08T10:07:12.297Z</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Beginner</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>1212121</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>2025-07-08T10:07:12.297Z</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t>hgju7</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Intermediate</t>
   </si>
   <si>
@@ -136,6 +157,9 @@
     <t>sumn</t>
   </si>
   <si>
+    <t>approved</t>
+  </si>
+  <si>
     <t>2025-07-10T15:09:19.710Z</t>
   </si>
   <si>
@@ -161,6 +185,180 @@
   </si>
   <si>
     <t>Test Test Test Test Test</t>
+  </si>
+  <si>
+    <t>2025-07-14T03:53:59.203Z</t>
+  </si>
+  <si>
+    <t>sdsdfsdf</t>
+  </si>
+  <si>
+    <t>rere</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdfsd</t>
+  </si>
+  <si>
+    <t>+923214234234</t>
+  </si>
+  <si>
+    <t>Goalkeeper (Secondary: I'm still exploring my best position)</t>
+  </si>
+  <si>
+    <t>waeawe</t>
+  </si>
+  <si>
+    <t>asdasdasdweadsdasdasd</t>
+  </si>
+  <si>
+    <t>2025-07-14T04:01:30.752Z</t>
+  </si>
+  <si>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasda</t>
+  </si>
+  <si>
+    <t>+923123123123</t>
+  </si>
+  <si>
+    <t>Midfielder (Defensive / Central / Attacking) (Secondary: I'm a versatile player)</t>
+  </si>
+  <si>
+    <t>awdwa</t>
+  </si>
+  <si>
+    <t>2025-07-14T04:24:57.729Z</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Elite Player</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>academy</t>
+  </si>
+  <si>
+    <t>asdadasd@sdasd.com</t>
+  </si>
+  <si>
+    <t>goalkeeper</t>
+  </si>
+  <si>
+    <t>Pro-level training</t>
+  </si>
+  <si>
+    <t>2010-12-14</t>
+  </si>
+  <si>
+    <t>2025-07-14T04:25:40.064Z</t>
+  </si>
+  <si>
+    <t>Elite Player 2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>midfielder</t>
+  </si>
+  <si>
+    <t>2005-03-02</t>
+  </si>
+  <si>
+    <t>2025-07-14T04:29:22.921Z</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>Pro Player</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>semi-pro</t>
+  </si>
+  <si>
+    <t>email@test.com</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t>sfsdfsdfsefsefs</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-14T04:35:25.932Z</t>
+  </si>
+  <si>
+    <t>Elite Player 3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>mail@mail.com</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2025-07-14T06:22:34.260Z</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>test@mail.com</t>
+  </si>
+  <si>
+    <t>+923234556556</t>
+  </si>
+  <si>
+    <t>Forward (Winger / Striker) (Secondary: I'm still exploring my best position)</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Sumn cool</t>
+  </si>
+  <si>
+    <t>2003-03-03</t>
   </si>
 </sst>
 </file>
@@ -547,19 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
+  <dimension ref="A1:V11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="15" width="20" customWidth="1"/>
+    <col min="1" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,57 +797,96 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -663,135 +894,585 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V11" t="s">
         <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
